--- a/docs/documents/goods.xlsx
+++ b/docs/documents/goods.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pw\Monorepo\docs\documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BEB6AF-2139-408A-96FA-A4475F2FDFF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,13 +25,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -53,7 +66,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -66,6 +79,163 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>513000</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>42354</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="グループ化 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CDD59D8-BFE6-9ABA-EE48-5F2D79C2EED1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="0" y="1"/>
+          <a:ext cx="10800000" cy="11948603"/>
+          <a:chOff x="0" y="1"/>
+          <a:chExt cx="10800000" cy="11948603"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2" name="図 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBFB9D90-B9C1-AAA7-A611-7482D147AFE1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="1"/>
+            <a:ext cx="10800000" cy="3757747"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="図 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABBDD92B-8443-C38D-2CA2-37149240036B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="3743326"/>
+            <a:ext cx="10800000" cy="2426903"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="4" name="図 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C07EDB1-9E93-3FCC-E5A0-18B25A4A3C2F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:srcRect t="652"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="6153149"/>
+            <a:ext cx="10800000" cy="2575994"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="5" name="図 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2AB209F-FD31-A8C0-FA1B-441F4FB9C0F3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="8715375"/>
+            <a:ext cx="10800000" cy="3233229"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +500,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="T38" sqref="T38"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>